--- a/df.xlsx
+++ b/df.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Tаблица 1</t>
   </si>
@@ -19,6 +19,27 @@
     <t>Month</t>
   </si>
   <si>
+    <t>Direct_Overloading_20</t>
+  </si>
+  <si>
+    <t>Cross_Docking_20</t>
+  </si>
+  <si>
+    <t>Direct_Overloading_40</t>
+  </si>
+  <si>
+    <t>Cross_Docking_40</t>
+  </si>
+  <si>
+    <t>Pallet_Direct_Overloading</t>
+  </si>
+  <si>
+    <t>Pallet_Cross_Docking</t>
+  </si>
+  <si>
+    <t>Other_revenue</t>
+  </si>
+  <si>
     <t>Reloading_Service</t>
   </si>
   <si>
@@ -28,19 +49,19 @@
     <t>Additional_Service</t>
   </si>
   <si>
-    <t>Director_number</t>
-  </si>
-  <si>
-    <t>Sales_number</t>
-  </si>
-  <si>
-    <t>Operation manager</t>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Operation_manager</t>
   </si>
   <si>
     <t>Loader</t>
   </si>
   <si>
-    <t>Forklift Operator</t>
+    <t>Forklift_Operator</t>
   </si>
   <si>
     <t>May</t>
@@ -1311,7 +1332,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1319,11 +1340,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5391" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.2344" style="1" customWidth="1"/>
-    <col min="6" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3438" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7969" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.8672" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.2422" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.0938" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6094" style="1" customWidth="1"/>
+    <col min="8" max="10" width="16.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5391" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.2344" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.2656" style="1" customWidth="1"/>
+    <col min="15" max="16" width="16.3516" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1338,8 +1368,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="26.2" customHeight="1">
+    <row r="2" ht="19.2" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1352,170 +1389,296 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" t="s" s="3">
         <v>9</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s" s="4">
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="19.2" customHeight="1">
       <c r="A3" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8">
+        <v>93</v>
+      </c>
+      <c r="H3" s="8">
+        <v>75</v>
+      </c>
+      <c r="I3" s="8">
+        <v>233</v>
+      </c>
+      <c r="J3" s="8">
+        <v>137</v>
+      </c>
+      <c r="K3" s="8">
+        <v>65</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
-        <v>200</v>
-      </c>
-      <c r="C3" s="8">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="P3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1">
       <c r="A4" t="s" s="9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E4" s="11">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11">
+        <v>61</v>
+      </c>
+      <c r="G4" s="11">
+        <v>156</v>
+      </c>
+      <c r="H4" s="11">
+        <v>145</v>
+      </c>
+      <c r="I4" s="11">
+        <v>295</v>
+      </c>
+      <c r="J4" s="11">
+        <v>225</v>
+      </c>
+      <c r="K4" s="11">
+        <v>79</v>
+      </c>
+      <c r="L4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="M4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="N4" s="11">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="O4" s="11">
         <v>9</v>
       </c>
-      <c r="I4" s="11">
+      <c r="P4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11">
+        <v>116</v>
+      </c>
+      <c r="G5" s="11">
+        <v>147</v>
+      </c>
+      <c r="H5" s="11">
+        <v>215</v>
+      </c>
+      <c r="I5" s="11">
+        <v>447</v>
+      </c>
+      <c r="J5" s="11">
+        <v>265</v>
+      </c>
+      <c r="K5" s="11">
+        <v>44</v>
+      </c>
+      <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="M5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="N5" s="11">
         <v>3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="O5" s="11">
         <v>8</v>
       </c>
-      <c r="I5" s="11">
+      <c r="P5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1">
       <c r="A6" t="s" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10">
-        <v>494</v>
+        <v>42</v>
       </c>
       <c r="C6" s="11">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E6" s="11">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11">
+        <v>121</v>
+      </c>
+      <c r="G6" s="11">
+        <v>316</v>
+      </c>
+      <c r="H6" s="11">
+        <v>401</v>
+      </c>
+      <c r="I6" s="11">
+        <v>600</v>
+      </c>
+      <c r="J6" s="11">
+        <v>420</v>
+      </c>
+      <c r="K6" s="11">
+        <v>101</v>
+      </c>
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="M6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="N6" s="11">
         <v>7</v>
       </c>
-      <c r="H6" s="11">
+      <c r="O6" s="11">
         <v>7</v>
       </c>
-      <c r="I6" s="11">
+      <c r="P6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1">
       <c r="A7" t="s" s="9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="D7" s="11">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E7" s="11">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11">
+        <v>115</v>
+      </c>
+      <c r="G7" s="11">
+        <v>230</v>
+      </c>
+      <c r="H7" s="11">
+        <v>300</v>
+      </c>
+      <c r="I7" s="11">
+        <v>520</v>
+      </c>
+      <c r="J7" s="11">
+        <v>340</v>
+      </c>
+      <c r="K7" s="11">
+        <v>70</v>
+      </c>
+      <c r="L7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="M7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="N7" s="11">
         <v>7</v>
       </c>
-      <c r="H7" s="11">
+      <c r="O7" s="11">
         <v>7</v>
       </c>
-      <c r="I7" s="11">
+      <c r="P7" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
